--- a/examples/OpenPyXLExamples.xlsx
+++ b/examples/OpenPyXLExamples.xlsx
@@ -21,13 +21,13 @@
     <t>Mon</t>
   </si>
   <si>
+    <t>Thur</t>
+  </si>
+  <si>
     <t>Tues</t>
   </si>
   <si>
     <t>Weds</t>
-  </si>
-  <si>
-    <t>Thur</t>
   </si>
   <si>
     <t>Breakfast</t>
@@ -161,7 +161,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>Bar!C1</f>
+              <f>Bar!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -176,7 +176,7 @@
           </cat>
           <val>
             <numRef>
-              <f>Bar!$C$2:$C$5</f>
+              <f>Bar!$D$2:$D$5</f>
             </numRef>
           </val>
         </ser>
@@ -739,13 +739,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>3</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -756,13 +756,13 @@
         <v>20</v>
       </c>
       <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
         <v>16</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>22</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -773,13 +773,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -790,13 +790,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>8</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.993618921409407</v>
+        <v>8.837375396787754</v>
       </c>
       <c r="C2" t="n">
-        <v>7.954007722324453</v>
+        <v>0.5085210235409798</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -843,10 +843,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.784202879162196</v>
+        <v>0.7271193118825925</v>
       </c>
       <c r="C3" t="n">
-        <v>2.92938225153681</v>
+        <v>0.3690508165012485</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -854,10 +854,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.141861947341638</v>
+        <v>1.050018877477071</v>
       </c>
       <c r="C4" t="n">
-        <v>3.366313646696129</v>
+        <v>4.65857261671669</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -865,10 +865,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.861427303178972</v>
+        <v>3.657495025471866</v>
       </c>
       <c r="C5" t="n">
-        <v>2.003661260204664</v>
+        <v>2.547622341388292</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -876,10 +876,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.769829676246228</v>
+        <v>4.083511191696787</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2044364514869379</v>
+        <v>9.953610407829043</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -887,10 +887,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9919322537166675</v>
+        <v>5.347005958038467</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7837790629393904</v>
+        <v>8.739250224005314</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.923679913548229</v>
+        <v>0.3833107503686928</v>
       </c>
       <c r="C8" t="n">
-        <v>3.042790176955267</v>
+        <v>1.116680432117803</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -909,10 +909,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.004254331451351</v>
+        <v>0.05319788249747659</v>
       </c>
       <c r="C9" t="n">
-        <v>6.47804864848389</v>
+        <v>8.455868352194392</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -920,10 +920,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8.970241793967226</v>
+        <v>2.829913771517538</v>
       </c>
       <c r="C10" t="n">
-        <v>4.788786893846535</v>
+        <v>6.090882931078225</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -931,10 +931,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.841277825154889</v>
+        <v>8.11385672163971</v>
       </c>
       <c r="C11" t="n">
-        <v>5.448527409183114</v>
+        <v>9.450386262209836</v>
       </c>
     </row>
   </sheetData>
@@ -970,21 +970,21 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>7.993618921409407</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>7.954007722324453</v>
+        <v>8.837375396787754</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5085210235409798</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>9.784202879162196</v>
+      <c r="B3" t="n">
+        <v>0.7271193118825925</v>
       </c>
       <c r="C3" t="n">
-        <v>2.92938225153681</v>
+        <v>0.3690508165012485</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -992,10 +992,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.141861947341638</v>
+        <v>1.050018877477071</v>
       </c>
       <c r="C4" t="n">
-        <v>3.366313646696129</v>
+        <v>4.65857261671669</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1003,10 +1003,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.861427303178972</v>
+        <v>3.657495025471866</v>
       </c>
       <c r="C5" t="n">
-        <v>2.003661260204664</v>
+        <v>2.547622341388292</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1014,21 +1014,21 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.769829676246228</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2044364514869379</v>
+        <v>4.083511191696787</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>9.953610407829043</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.9919322537166675</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7837790629393904</v>
+      <c r="B7" s="2" t="n">
+        <v>5.347005958038467</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>8.739250224005314</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1036,43 +1036,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.923679913548229</v>
+        <v>0.3833107503686928</v>
       </c>
       <c r="C8" t="n">
-        <v>3.042790176955267</v>
+        <v>1.116680432117803</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>6.004254331451351</v>
+      <c r="B9" t="n">
+        <v>0.05319788249747659</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>6.47804864848389</v>
+        <v>8.455868352194392</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>8.970241793967226</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4.788786893846535</v>
+      <c r="B10" t="n">
+        <v>2.829913771517538</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>6.090882931078225</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>4.841277825154889</v>
+      <c r="B11" s="2" t="n">
+        <v>8.11385672163971</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>5.448527409183114</v>
+        <v>9.450386262209836</v>
       </c>
     </row>
     <row r="13" spans="1:3">

--- a/examples/OpenPyXLExamples.xlsx
+++ b/examples/OpenPyXLExamples.xlsx
@@ -9,6 +9,7 @@
     <sheet name="Bar" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Scatter" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Highlighted" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Conditional Formatting" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Mon</t>
   </si>
@@ -48,7 +49,10 @@
     <t>Y2</t>
   </si>
   <si>
-    <t>Values above 5 highlighted</t>
+    <t>Max highlighted</t>
+  </si>
+  <si>
+    <t>Min highlighted</t>
   </si>
 </sst>
 </file>
@@ -56,7 +60,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -66,6 +70,10 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="0000FF00"/>
     </font>
     <font>
       <b val="1"/>
@@ -99,11 +107,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -832,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8.837375396787754</v>
+        <v>8.252643144094897</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5085210235409798</v>
+        <v>5.405017945584013</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -843,10 +852,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7271193118825925</v>
+        <v>6.68588770720516</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3690508165012485</v>
+        <v>9.925574752198022</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -854,10 +863,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.050018877477071</v>
+        <v>5.863923788494891</v>
       </c>
       <c r="C4" t="n">
-        <v>4.65857261671669</v>
+        <v>3.189183188888812</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -865,10 +874,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.657495025471866</v>
+        <v>0.976589030820818</v>
       </c>
       <c r="C5" t="n">
-        <v>2.547622341388292</v>
+        <v>3.171506025267213</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -876,10 +885,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.083511191696787</v>
+        <v>6.713361507575395</v>
       </c>
       <c r="C6" t="n">
-        <v>9.953610407829043</v>
+        <v>2.976258459102171</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -887,10 +896,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.347005958038467</v>
+        <v>0.5099811919552821</v>
       </c>
       <c r="C7" t="n">
-        <v>8.739250224005314</v>
+        <v>0.01742846552266974</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -898,10 +907,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3833107503686928</v>
+        <v>2.891980130967887</v>
       </c>
       <c r="C8" t="n">
-        <v>1.116680432117803</v>
+        <v>8.653387117681449</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -909,10 +918,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05319788249747659</v>
+        <v>9.495778467361443</v>
       </c>
       <c r="C9" t="n">
-        <v>8.455868352194392</v>
+        <v>9.931725249980042</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -920,10 +929,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.829913771517538</v>
+        <v>9.735840553392082</v>
       </c>
       <c r="C10" t="n">
-        <v>6.090882931078225</v>
+        <v>6.241923081743693</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -931,10 +940,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.11385672163971</v>
+        <v>4.223498224820437</v>
       </c>
       <c r="C11" t="n">
-        <v>9.450386262209836</v>
+        <v>8.485493146619246</v>
       </c>
     </row>
   </sheetData>
@@ -969,11 +978,11 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>8.837375396787754</v>
+      <c r="B2" t="n">
+        <v>8.252643144094897</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5085210235409798</v>
+        <v>5.405017945584013</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -981,10 +990,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7271193118825925</v>
+        <v>6.68588770720516</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3690508165012485</v>
+        <v>9.925574752198022</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -992,10 +1001,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.050018877477071</v>
+        <v>5.863923788494891</v>
       </c>
       <c r="C4" t="n">
-        <v>4.65857261671669</v>
+        <v>3.189183188888812</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1003,10 +1012,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.657495025471866</v>
+        <v>0.976589030820818</v>
       </c>
       <c r="C5" t="n">
-        <v>2.547622341388292</v>
+        <v>3.171506025267213</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1014,21 +1023,21 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.083511191696787</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>9.953610407829043</v>
+        <v>6.713361507575395</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.976258459102171</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>5.347005958038467</v>
+      <c r="B7" t="n">
+        <v>0.5099811919552821</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>8.739250224005314</v>
+        <v>0.01742846552266974</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1036,10 +1045,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3833107503686928</v>
+        <v>2.891980130967887</v>
       </c>
       <c r="C8" t="n">
-        <v>1.116680432117803</v>
+        <v>8.653387117681449</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1047,40 +1056,192 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05319788249747659</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>8.455868352194392</v>
+        <v>9.495778467361443</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.931725249980042</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>2.829913771517538</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>6.090882931078225</v>
+      <c r="B10" s="3" t="n">
+        <v>9.735840553392082</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.241923081743693</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>8.11385672163971</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>9.450386262209836</v>
+      <c r="B11" t="n">
+        <v>4.223498224820437</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.485493146619246</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.252643144094897</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.405017945584013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.68588770720516</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.925574752198022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.863923788494891</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.189183188888812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.976589030820818</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.171506025267213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6.713361507575395</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.976258459102171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5099811919552821</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01742846552266974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.891980130967887</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.653387117681449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9.495778467361443</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.931725249980042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9.735840553392082</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.241923081743693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.223498224820437</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.485493146619246</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:C11">
+    <cfRule priority="1" type="colorScale">
+      <colorScale>
+        <cfvo type="num" val="0.01742846552266974"/>
+        <cfvo type="num" val="5.667349058963781"/>
+        <cfvo type="num" val="9.931725249980042"/>
+        <color rgb="0000FF00"/>
+        <color rgb="00FFFF00"/>
+        <color rgb="00FF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>